--- a/input/fra_arcgis.xlsx
+++ b/input/fra_arcgis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\Progg\nedre_glomma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne\Progg\pandas_test\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03047E-8867-4D20-BB2D-9F2F8F409D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435714F2-4196-4D0F-96F1-3A3398D2B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="18240" windowHeight="29040" xr2:uid="{C253E200-655C-443C-A5A1-C098B0E00FE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C253E200-655C-443C-A5A1-C098B0E00FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
-  <si>
-    <t>byggtype_profet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -53,12 +50,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>areal</t>
-  </si>
-  <si>
-    <t>objektid</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -68,26 +59,53 @@
     <t>Z</t>
   </si>
   <si>
-    <t>byggstandard_profet</t>
-  </si>
-  <si>
-    <t>bebygd_areal</t>
-  </si>
-  <si>
-    <t>energiomraade</t>
+    <t>Energiomraadeid</t>
+  </si>
+  <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
+    <t>Byggtype_profet</t>
+  </si>
+  <si>
+    <t>BRUKSAREAL_TOTALT</t>
+  </si>
+  <si>
+    <t>Energistandard_profet</t>
+  </si>
+  <si>
+    <t>Energibronn</t>
+  </si>
+  <si>
+    <t>ANTALL_ETASJER</t>
+  </si>
+  <si>
+    <t>BEBYGD_AREAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,8 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,455 +450,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BEB1F2-5252-442C-B3BE-AC59FE5A69F1}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>C2/10</f>
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="0">C3/10</f>
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>37.799999999999997</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>4000</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>5000</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>13.8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>428</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>291</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>20.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
